--- a/AdminProyectos/Planeación del proyecto/Procesos/Administración de Riesgos/WT-001_Herramienta para la Administración de Riesgos.xlsx
+++ b/AdminProyectos/Planeación del proyecto/Procesos/Administración de Riesgos/WT-001_Herramienta para la Administración de Riesgos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTRADA\Desktop\Plantillas_Admón_Riesgos_2016\Plantillas_Admón_Riesgos_2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WT\AdminProyectos\Planeación del proyecto\Procesos\Administración de Riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificacion" sheetId="9" r:id="rId1"/>
@@ -3883,12 +3883,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-534494928"/>
-        <c:axId val="-534494384"/>
-        <c:axId val="-378348592"/>
+        <c:axId val="1239121904"/>
+        <c:axId val="1239130608"/>
+        <c:axId val="1159414528"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-534494928"/>
+        <c:axId val="1239121904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,7 +3933,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-534494384"/>
+        <c:crossAx val="1239130608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3943,7 +3943,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-534494384"/>
+        <c:axId val="1239130608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,13 +3988,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-534494928"/>
+        <c:crossAx val="1239121904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-378348592"/>
+        <c:axId val="1159414528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4039,7 +4039,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-534494384"/>
+        <c:crossAx val="1239130608"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -7846,8 +7846,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB783"/>
   <sheetViews>
-    <sheetView zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23257,7 +23257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
